--- a/localfile/XLout.xlsx
+++ b/localfile/XLout.xlsx
@@ -6,7 +6,9 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="09" sheetId="2" r:id="rId2"/>
+    <x:sheet name="08" sheetId="2" r:id="rId2"/>
+    <x:sheet name="09" sheetId="5" r:id="rId5"/>
+    <x:sheet name="14" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -28,82 +30,82 @@
     <x:t>revenue</x:t>
   </x:si>
   <x:si>
+    <x:t>TollsByMail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sub Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EZ AMS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Commuter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green Discount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Cycle 2L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Non-Revenue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EZ CAPS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTALS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Passenger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Commercial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOV</x:t>
+  </x:si>
+  <x:si>
     <x:t>Non EZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sub Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EZ AMS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Commuter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green Discount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Cycle 2L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Home 2H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Non-Revenue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EZ CAPS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TOTALS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Passenger</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Commercial</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TOTAL</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -454,7 +456,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D47"/>
+  <x:dimension ref="A1:D41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -482,10 +484,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>9584</x:v>
+        <x:v>5359</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>47920</x:v>
+        <x:v>6698.75</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -496,10 +498,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>540.5</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -510,10 +512,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>770</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -524,10 +526,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>2492.75</x:v>
+        <x:v>1173</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -538,10 +540,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>228.25</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -552,10 +554,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>618.75</x:v>
+        <x:v>149.5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -566,10 +568,632 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>347</x:v>
+        <x:v>5842</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>11364.25</x:v>
+        <x:v>8595.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>4452</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>2448.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>47.08</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>4.41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>29284</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>35125.34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>14.37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>30.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>1096</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>2106.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>1318.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>714.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>3095.11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>1438.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>33.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>5.46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>37117</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>46592.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>109.48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>2.86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>4.98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>343.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>673.38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>344.85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="n">
+        <x:v>2440.16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>1022</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="n">
+        <x:v>237.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="n">
+        <x:v>115.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="n">
+        <x:v>16.38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>1639</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="n">
+        <x:v>5310.99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>44598</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="n">
+        <x:v>60499.11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>4452</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>2448.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>34819</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>42037.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>5096</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>16012.64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>44598</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>60499.11</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D49"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>7627</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>38135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>333.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>4026.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>1182.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>1509.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>22302.75</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -577,13 +1201,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>574</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -591,13 +1215,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>98.5</x:v>
+        <x:v>1083.5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -605,335 +1229,1041 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>10246</x:v>
+        <x:v>8832</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>64238</x:v>
+        <x:v>70083</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>3954</x:v>
+        <x:v>11900</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>11862</x:v>
+        <x:v>35700</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>495</x:v>
+        <x:v>968</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>247.5</x:v>
+        <x:v>484</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>273.92</x:v>
+        <x:v>308.16</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>12.5</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>43976</x:v>
+        <x:v>35718</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>210947.75</x:v>
+        <x:v>171342.25</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>1483.5</x:v>
+        <x:v>792.04</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
         <x:v>186</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>1719.36</x:v>
+        <x:v>2049.09</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>1328</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>13479.59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>5710.05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>4059.53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>2622</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>74718.14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>6690.59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>1419.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>1535.36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>1169.74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>1633.63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>54387</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>321116.77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>631.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>5.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="n">
+        <x:v>48.16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>1530.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="n">
+        <x:v>1154.48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="n">
+        <x:v>1989.89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>1216</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="n">
+        <x:v>21910.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="n">
+        <x:v>7845.23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="n">
+        <x:v>1291.47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>290.72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>652.62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>114.66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>2279</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>37466.23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>65498</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>428666</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>11900</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="n">
+        <x:v>35700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>968</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="n">
+        <x:v>484</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="n">
+        <x:v>43949</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="n">
+        <x:v>214605.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="n">
+        <x:v>8431</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="n">
+        <x:v>177876.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="n">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="A49" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="n">
+        <x:v>65498</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="n">
+        <x:v>428666</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D39"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>1354.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>585.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>445.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>6196.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>206.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>181.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>945</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>9294.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>77.06</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>837</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>3058.95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>2275.19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>1556.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>1715</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>20453.97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>1513.11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>791.11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>4.75</x:v>
+        <x:v>214.15</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>401</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>3615.31</x:v>
+        <x:v>123.75</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>2407.95</x:v>
+        <x:v>312.89</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="A22" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>1212.99</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="A23" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>1034</x:v>
+        <x:v>3711</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>30605.87</x:v>
+        <x:v>30379.98</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>1392.3</x:v>
+        <x:v>4.5</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="A25" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>820</x:v>
+        <x:v>547.3</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
       <x:c r="A26" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>65.52</x:v>
+        <x:v>544.95</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>49.25</x:v>
+        <x:v>1133.28</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>1283</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9835.96</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>50812</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>266720.47</x:v>
+        <x:v>2247.8</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>137.75</x:v>
+        <x:v>575.54</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>169.74</x:v>
+        <x:v>93.62</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>301.02</x:v>
+        <x:v>313.5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>557.1</x:v>
+        <x:v>46.16</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>696</x:v>
+        <x:v>2347</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>11400.48</x:v>
+        <x:v>15342.61</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -941,13 +2271,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>7003</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>2063.88</x:v>
+        <x:v>55016.84</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -955,13 +2285,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>697</x:v>
+        <x:v>408.56</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
@@ -969,13 +2299,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>6871</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>98.28</x:v>
+        <x:v>54608.28</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
@@ -983,13 +2313,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>73.89</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
@@ -997,139 +2327,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7003</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>32.76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:4">
-      <x:c r="A40" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C40" s="0" t="n">
-        <x:v>993</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="n">
-        <x:v>15531.9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:4">
-      <x:c r="A41" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="n">
-        <x:v>62051</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="n">
-        <x:v>346490.37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:4">
-      <x:c r="A42" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C42" s="0" t="n">
-        <x:v>3954</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="n">
-        <x:v>11862</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:4">
-      <x:c r="A43" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C43" s="0" t="n">
-        <x:v>495</x:v>
-      </x:c>
-      <x:c r="D43" s="0" t="n">
-        <x:v>247.5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:4">
-      <x:c r="A44" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C44" s="0" t="n">
-        <x:v>54149</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="n">
-        <x:v>263805.28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:4">
-      <x:c r="A45" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C45" s="0" t="n">
-        <x:v>3355</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="n">
-        <x:v>70575.59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:4">
-      <x:c r="A46" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C46" s="0" t="n">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:4">
-      <x:c r="A47" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C47" s="0" t="n">
-        <x:v>62051</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="n">
-        <x:v>346490.37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:4">
-      <x:c r="A48" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C48" s="0" t="n">
-        <x:v>70986</x:v>
-      </x:c>
-      <x:c r="D48" s="0" t="n">
-        <x:v>479040.92</x:v>
+        <x:v>55016.84</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/localfile/XLout.xlsx
+++ b/localfile/XLout.xlsx
@@ -484,10 +484,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>5359</x:v>
+        <x:v>5462</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>6698.75</x:v>
+        <x:v>6827.5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -498,10 +498,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>253</x:v>
+        <x:v>302.5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -512,10 +512,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -540,10 +540,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -554,10 +554,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>149.5</x:v>
+        <x:v>143.75</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -568,10 +568,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>5842</x:v>
+        <x:v>5964</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>8595.25</x:v>
+        <x:v>8771.75</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -582,10 +582,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>4452</x:v>
+        <x:v>4323</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>2448.6</x:v>
+        <x:v>2377.65</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -596,10 +596,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>47.08</x:v>
+        <x:v>65.27</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -610,10 +610,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>4.41</x:v>
+        <x:v>2.52</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -624,10 +624,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>29284</x:v>
+        <x:v>29676</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>35125.34</x:v>
+        <x:v>35604.24</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -638,10 +638,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>14.37</x:v>
+        <x:v>15.87</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -652,10 +652,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>30.6</x:v>
+        <x:v>21.76</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -666,10 +666,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>1096</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>2106.6</x:v>
+        <x:v>2012.4</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -680,10 +680,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>1318.3</x:v>
+        <x:v>1365.05</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -694,10 +694,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>714.75</x:v>
+        <x:v>674.7</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -708,10 +708,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>746</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>3095.11</x:v>
+        <x:v>3029.26</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -722,10 +722,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>411</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>1438.5</x:v>
+        <x:v>1372</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -739,7 +739,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>33.75</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -750,10 +750,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>189</x:v>
+        <x:v>262.5</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -761,13 +761,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>5.46</x:v>
+        <x:v>17.5</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -775,13 +775,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -789,27 +789,27 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>37276</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>46854.72</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="A25" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>37117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>46592.87</x:v>
+        <x:v>135.66</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -817,13 +817,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>109.48</x:v>
+        <x:v>1.43</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -831,13 +831,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>2.86</x:v>
+        <x:v>8.3</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -845,13 +845,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>4.98</x:v>
+        <x:v>370.5</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -859,13 +859,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>181</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>343.9</x:v>
+        <x:v>576.81</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -873,13 +873,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>673.38</x:v>
+        <x:v>262.2</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
@@ -887,13 +887,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>344.85</x:v>
+        <x:v>2779.52</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -901,13 +901,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>604</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>2440.16</x:v>
+        <x:v>1032.5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
@@ -915,13 +915,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>292</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>1022</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
@@ -929,13 +929,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>237.5</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -943,13 +943,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>115.5</x:v>
+        <x:v>16.38</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -957,27 +957,27 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1688</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>16.38</x:v>
+        <x:v>5502.3</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>1639</x:v>
+        <x:v>44928</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>5310.99</x:v>
+        <x:v>61128.77</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
@@ -985,13 +985,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>44598</x:v>
+        <x:v>4323</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>60499.11</x:v>
+        <x:v>2377.65</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
@@ -999,13 +999,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>4452</x:v>
+        <x:v>35347</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>2448.6</x:v>
+        <x:v>42682.55</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
@@ -1013,13 +1013,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>34819</x:v>
+        <x:v>5080</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>42037.87</x:v>
+        <x:v>16068.57</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
@@ -1027,13 +1027,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>5096</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>16012.64</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
@@ -1041,13 +1041,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>44928</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>61128.77</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
@@ -1812,10 +1812,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -1826,10 +1826,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>270</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -1840,10 +1840,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>1354.5</x:v>
+        <x:v>1743</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -1854,10 +1854,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>585.75</x:v>
+        <x:v>833.25</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -1868,10 +1868,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>445.5</x:v>
+        <x:v>561</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -1882,10 +1882,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>459</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>6196.5</x:v>
+        <x:v>7114.5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -1896,10 +1896,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>206.5</x:v>
+        <x:v>339.25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -1910,10 +1910,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>181.5</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -1924,10 +1924,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>945</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>9294.25</x:v>
+        <x:v>11188</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -1938,10 +1938,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>13.5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -1952,10 +1952,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>77.06</x:v>
+        <x:v>64.67</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -1966,10 +1966,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>837</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>3058.95</x:v>
+        <x:v>3181.17</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -1980,10 +1980,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>2275.19</x:v>
+        <x:v>2352.57</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -1994,10 +1994,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>253</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>1556.8</x:v>
+        <x:v>1806.44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -2008,10 +2008,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>1715</x:v>
+        <x:v>1654</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>20453.97</x:v>
+        <x:v>19610.26</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -2022,10 +2022,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>271</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>1513.11</x:v>
+        <x:v>1564.34</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -2036,10 +2036,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>791.11</x:v>
+        <x:v>765.29</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -2050,10 +2050,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>214.15</x:v>
+        <x:v>194.93</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2064,10 +2064,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>123.75</x:v>
+        <x:v>189.75</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -2078,10 +2078,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>312.89</x:v>
+        <x:v>251.35</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -2092,7 +2092,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>0</x:v>
@@ -2106,10 +2106,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>3711</x:v>
+        <x:v>3713</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>30379.98</x:v>
+        <x:v>29994.27</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -2120,10 +2120,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>4.5</x:v>
+        <x:v>2.25</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
@@ -2134,10 +2134,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>547.3</x:v>
+        <x:v>638.73</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -2148,10 +2148,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>544.95</x:v>
+        <x:v>675.02</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -2162,10 +2162,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>1133.28</x:v>
+        <x:v>1254.08</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -2176,10 +2176,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>1283</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>9835.96</x:v>
+        <x:v>9927.18</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -2190,10 +2190,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>396</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>2247.8</x:v>
+        <x:v>2292.65</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -2204,10 +2204,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>575.54</x:v>
+        <x:v>538.65</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
@@ -2218,10 +2218,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>93.62</x:v>
+        <x:v>83.35</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -2232,10 +2232,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>313.5</x:v>
+        <x:v>276.37</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
@@ -2246,10 +2246,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>46.16</x:v>
+        <x:v>25.64</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
@@ -2260,10 +2260,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>2347</x:v>
+        <x:v>2454</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>15342.61</x:v>
+        <x:v>15713.92</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -2274,10 +2274,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>7003</x:v>
+        <x:v>7316</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>55016.84</x:v>
+        <x:v>56896.19</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -2288,10 +2288,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>408.56</x:v>
+        <x:v>413.42</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
@@ -2302,10 +2302,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>6871</x:v>
+        <x:v>7187</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>54608.28</x:v>
+        <x:v>56482.77</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
@@ -2316,7 +2316,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>0</x:v>
@@ -2330,10 +2330,38 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>7003</x:v>
+        <x:v>7316</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>55016.84</x:v>
+        <x:v>56896.19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>6813</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>50538</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/localfile/XLout.xlsx
+++ b/localfile/XLout.xlsx
@@ -9,6 +9,10 @@
     <x:sheet name="08" sheetId="2" r:id="rId2"/>
     <x:sheet name="09" sheetId="5" r:id="rId5"/>
     <x:sheet name="14" sheetId="7" r:id="rId7"/>
+    <x:sheet name="06" sheetId="8" r:id="rId8"/>
+    <x:sheet name="86" sheetId="9" r:id="rId9"/>
+    <x:sheet name="89" sheetId="10" r:id="rId10"/>
+    <x:sheet name="98" sheetId="11" r:id="rId11"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -16,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
     <x:t>class</x:t>
   </x:si>
@@ -81,9 +85,6 @@
     <x:t>6S</x:t>
   </x:si>
   <x:si>
-    <x:t>7S</x:t>
-  </x:si>
-  <x:si>
     <x:t>Non-Revenue</x:t>
   </x:si>
   <x:si>
@@ -105,7 +106,13 @@
     <x:t>MOV</x:t>
   </x:si>
   <x:si>
+    <x:t>7S</x:t>
+  </x:si>
+  <x:si>
     <x:t>Non EZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resident</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -484,10 +491,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>5462</x:v>
+        <x:v>7793</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>6827.5</x:v>
+        <x:v>9741.25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -498,10 +505,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>302.5</x:v>
+        <x:v>52.25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -512,10 +519,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -526,10 +533,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>276</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>1173</x:v>
+        <x:v>408</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -540,10 +547,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -554,10 +561,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>143.75</x:v>
+        <x:v>17.25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -568,10 +575,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>5964</x:v>
+        <x:v>7928</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>8771.75</x:v>
+        <x:v>10281.75</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -582,10 +589,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>4323</x:v>
+        <x:v>1410</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>2377.65</x:v>
+        <x:v>775.5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -596,10 +603,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>65.27</x:v>
+        <x:v>56.71</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -610,10 +617,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>2.52</x:v>
+        <x:v>3.15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -624,10 +631,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>29676</x:v>
+        <x:v>36259</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>35604.24</x:v>
+        <x:v>43643.03</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -638,10 +645,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>15.87</x:v>
+        <x:v>20.23</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -652,10 +659,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>21.76</x:v>
+        <x:v>11.71</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -666,10 +673,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>1047</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>2012.4</x:v>
+        <x:v>598.6</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -680,10 +687,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>517</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>1365.05</x:v>
+        <x:v>283.47</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -694,10 +701,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>236</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>674.7</x:v>
+        <x:v>217.65</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -708,10 +715,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>731</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>3029.26</x:v>
+        <x:v>809.43</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -722,10 +729,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>392</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>1372</x:v>
+        <x:v>332.5</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -736,10 +743,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>9.5</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -750,10 +757,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>262.5</x:v>
+        <x:v>31.5</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -764,10 +771,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>17.5</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -775,167 +782,167 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>178</x:v>
+        <x:v>38612</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>46792.98</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>37276</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>46854.72</x:v>
+        <x:v>46.41</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="A25" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>135.66</x:v>
+        <x:v>3.32</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
       <x:c r="A26" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>1.43</x:v>
+        <x:v>112.1</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>8.3</x:v>
+        <x:v>169.65</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>370.5</x:v>
+        <x:v>74.1</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>576.81</x:v>
+        <x:v>1369.56</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>262.2</x:v>
+        <x:v>591.5</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>688</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>2779.52</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>1032.5</x:v>
+        <x:v>17.5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>5.46</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>2484.6</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -943,13 +950,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>47265</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>16.38</x:v>
+        <x:v>59559.33</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -957,111 +964,111 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>1688</x:v>
+        <x:v>1410</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>5502.3</x:v>
+        <x:v>775.5</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>44928</x:v>
+        <x:v>44172</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>61128.77</x:v>
+        <x:v>53525.81</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>4323</x:v>
+        <x:v>1614</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>2377.65</x:v>
+        <x:v>5258.02</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>35347</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>42682.55</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>5080</x:v>
+        <x:v>47265</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>16068.57</x:v>
+        <x:v>59559.33</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>178</x:v>
+        <x:v>4625</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14554.53</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="A42" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>44928</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>61128.77</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>44598</x:v>
+        <x:v>49852</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>60499.11</x:v>
+        <x:v>66645.05</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1106,10 +1113,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>7627</x:v>
+        <x:v>11001</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>38135</x:v>
+        <x:v>55005</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -1120,10 +1127,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>333.5</x:v>
+        <x:v>379.5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -1134,10 +1141,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>935</x:v>
+        <x:v>687.5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -1148,10 +1155,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>273</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>4026.75</x:v>
+        <x:v>2684.5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -1162,10 +1169,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>1182.75</x:v>
+        <x:v>622.5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -1176,10 +1183,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>1509.75</x:v>
+        <x:v>643.5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -1190,10 +1197,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>681</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>22302.75</x:v>
+        <x:v>8842.5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -1204,10 +1211,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>574</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -1218,10 +1225,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>1083.5</x:v>
+        <x:v>147.75</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -1232,10 +1239,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>8832</x:v>
+        <x:v>11603</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>70083</x:v>
+        <x:v>69340.75</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -1246,10 +1253,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>11900</x:v>
+        <x:v>5839</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>35700</x:v>
+        <x:v>17517</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -1257,13 +1264,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>968</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>484</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -1274,10 +1281,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>308.16</x:v>
+        <x:v>398.04</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -1302,10 +1309,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>35718</x:v>
+        <x:v>49754</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>171342.25</x:v>
+        <x:v>238902.25</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -1316,10 +1323,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>792.04</x:v>
+        <x:v>1075.25</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -1330,10 +1337,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>2049.09</x:v>
+        <x:v>1588.6</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -1344,10 +1351,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>1328</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>13479.59</x:v>
+        <x:v>5238.56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -1358,10 +1365,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>415</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>5710.05</x:v>
+        <x:v>2895.77</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -1372,10 +1379,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>226</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>4059.53</x:v>
+        <x:v>1349.13</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -1386,10 +1393,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>2622</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>74718.14</x:v>
+        <x:v>29280.03</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -1400,10 +1407,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>358</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>6690.59</x:v>
+        <x:v>1687.14</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -1414,10 +1421,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>1419.6</x:v>
+        <x:v>881.5</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
@@ -1428,10 +1435,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>1535.36</x:v>
+        <x:v>245.7</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -1442,10 +1449,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>1169.74</x:v>
+        <x:v>320.17</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -1453,13 +1460,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>1633.63</x:v>
+        <x:v>98.28</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -1467,10 +1474,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
         <x:v>0</x:v>
@@ -1484,178 +1491,178 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>54387</x:v>
+        <x:v>58844</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>321116.77</x:v>
+        <x:v>301800.42</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>631.75</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>5.75</x:v>
+        <x:v>6.88</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>48.16</x:v>
+        <x:v>302.58</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>1530.75</x:v>
+        <x:v>467.1</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>1154.48</x:v>
+        <x:v>755.18</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>1989.89</x:v>
+        <x:v>11318.58</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>1216</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>21910.75</x:v>
+        <x:v>2211.3</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>418</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>7845.23</x:v>
+        <x:v>1025</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>1291.47</x:v>
+        <x:v>65.52</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>290.72</x:v>
+        <x:v>49.26</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>652.62</x:v>
+        <x:v>65.52</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1074</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>114.66</x:v>
+        <x:v>16456.92</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
@@ -1663,111 +1670,125 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>2279</x:v>
+        <x:v>71521</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>37466.23</x:v>
+        <x:v>387598.09</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>65498</x:v>
+        <x:v>5839</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>428666</x:v>
+        <x:v>17517</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
       <x:c r="A44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>11900</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>35700</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
       <x:c r="A45" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>968</x:v>
+        <x:v>61288</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>484</x:v>
+        <x:v>298258.02</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
       <x:c r="A46" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>43949</x:v>
+        <x:v>3681</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>214605.7</x:v>
+        <x:v>71525.07</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
       <x:c r="A47" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>8431</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>177876.3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>71521</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>387598.09</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4">
       <x:c r="A49" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>65498</x:v>
+        <x:v>79046</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>428666</x:v>
+        <x:v>422315.54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="A50" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="n">
+        <x:v>85238</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="n">
+        <x:v>502211.82</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1812,10 +1833,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -1826,10 +1847,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>261</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -1840,10 +1861,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>332</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>1743</x:v>
+        <x:v>1018.5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -1854,10 +1875,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>833.25</x:v>
+        <x:v>222.75</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -1868,10 +1889,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>561</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -1882,10 +1903,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>527</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>7114.5</x:v>
+        <x:v>2200.5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -1896,10 +1917,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>339.25</x:v>
+        <x:v>103.25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -1910,10 +1931,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>16.5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -1924,10 +1945,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>1149</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>11188</x:v>
+        <x:v>4035.5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -1941,7 +1962,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>13.5</x:v>
+        <x:v>10.5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -1952,10 +1973,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>64.67</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -1966,10 +1987,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>860</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>3181.17</x:v>
+        <x:v>822.49</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -1980,10 +2001,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>417</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>2352.57</x:v>
+        <x:v>681.09</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -1994,10 +2015,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>291</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>1806.44</x:v>
+        <x:v>503.53</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -2008,10 +2029,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>1654</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>19610.26</x:v>
+        <x:v>6608.25</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -2022,10 +2043,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>1564.34</x:v>
+        <x:v>359.1</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -2036,10 +2057,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>765.29</x:v>
+        <x:v>383.56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -2050,10 +2071,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>194.93</x:v>
+        <x:v>41.04</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2064,10 +2085,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>189.75</x:v>
+        <x:v>24.75</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -2075,13 +2096,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>251.35</x:v>
+        <x:v>35.91</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -2089,10 +2110,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>0</x:v>
@@ -2106,15 +2127,15 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>3713</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>29994.27</x:v>
+        <x:v>9515.22</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>17</x:v>
@@ -2128,195 +2149,195 @@
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="A25" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>638.73</x:v>
+        <x:v>131.5</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
       <x:c r="A26" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>675.02</x:v>
+        <x:v>115.64</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>263</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>1254.08</x:v>
+        <x:v>359.31</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>1312</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>9927.18</x:v>
+        <x:v>4414.5</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>401</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>2292.65</x:v>
+        <x:v>641.25</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>538.65</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>83.35</x:v>
+        <x:v>15.39</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>276.37</x:v>
+        <x:v>82.5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>25.64</x:v>
+        <x:v>5.13</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>2454</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>15713.92</x:v>
+        <x:v>6136.47</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>7316</x:v>
+        <x:v>2655</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>56896.19</x:v>
+        <x:v>19687.19</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>413.42</x:v>
+        <x:v>366.75</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>7187</x:v>
+        <x:v>2545</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>56482.77</x:v>
+        <x:v>19320.44</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>0</x:v>
@@ -2324,24 +2345,24 @@
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>7316</x:v>
+        <x:v>2655</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>56896.19</x:v>
+        <x:v>19687.19</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
         <x:v>22</x:v>
@@ -2352,16 +2373,2742 @@
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
         <x:v>6813</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
         <x:v>50538</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D46"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>7916</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>9895</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>33.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>824</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>92.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>57.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>501.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>40.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>8561</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>11492.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>397.65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>54.57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>6.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>35530</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>42428.78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>17.37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>23.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>1494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>505.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>231.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>1661.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>433.55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>95.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>41.86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>20.93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>38154</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>47479.78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>29.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>275.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>184.04</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="n">
+        <x:v>480.24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>1414</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="n">
+        <x:v>598</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="n">
+        <x:v>128.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="n">
+        <x:v>47.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="n">
+        <x:v>8.97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>1033</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="n">
+        <x:v>3166.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>47748</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>62138.43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>397.65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>43599</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>52521.62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>3316</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>9219.16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>47748</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="n">
+        <x:v>62138.43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="n">
+        <x:v>51360</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="n">
+        <x:v>66859.98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="n">
+        <x:v>52460</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="n">
+        <x:v>74156.96</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D49"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>8067</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>8067</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>85.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>5.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>31.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>19.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>340</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>8314</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>8725.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>4979</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>1394.12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>5463</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>491.67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>7.74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>1.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>9736</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>9293.95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>7.15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>139.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>75.56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>18.41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>658.48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>71.76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>70.68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>5.98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>14.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>20589</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>12250.65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>83.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>1.43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>138.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>102.72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>46.98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="n">
+        <x:v>921.12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>212.29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="n">
+        <x:v>34.24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="n">
+        <x:v>38.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="n">
+        <x:v>20.93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="n">
+        <x:v>1600.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>29458</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="n">
+        <x:v>22577.03</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>4979</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>1394.12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>5463</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>491.67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>17969</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>17553.12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>3138.12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>29458</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="n">
+        <x:v>22577.03</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>38552</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="n">
+        <x:v>29940.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="n">
+        <x:v>6746</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="n">
+        <x:v>607.39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="n">
+        <x:v>17781</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="n">
+        <x:v>17364.82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="n">
+        <x:v>2681</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="n">
+        <x:v>8486.73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="A49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="n">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="A50" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="n">
+        <x:v>35178</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="n">
+        <x:v>28651.28</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D47"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>6982</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>6982</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>8.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>15.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>16.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>72.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>7134</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>7306.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>4789</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>1340.92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>3429</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>308.86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>6.02</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>1.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>7688</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>7338.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>4.36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>45.05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>10.44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>321.37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>20.93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>21.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>2.99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>4.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>16120</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>9528.39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>67.45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>2.86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>85.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>20.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>533.28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="n">
+        <x:v>164.45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>25.68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="n">
+        <x:v>26.91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="n">
+        <x:v>1060.11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>23647</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="n">
+        <x:v>17894.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>4789</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="n">
+        <x:v>1340.92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>3429</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="n">
+        <x:v>308.86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>14807</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>14480.74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>1764.23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>23647</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>17894.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>23468</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>22993.18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>821</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="n">
+        <x:v>2290.82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="n">
+        <x:v>33775</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="n">
+        <x:v>27234.57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="n">
+        <x:v>26849</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="n">
+        <x:v>21480.29</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D44"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>11201</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>19601.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>1361.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>195.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>1600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>11863</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>22923.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>46.19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>6.16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>39184</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>65468.89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>7.14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>22.95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>2006.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>631.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>450.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>5114.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>429.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>120.74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>51.57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>18.52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>40.11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>40917</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>74415.85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>24.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>319.68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>218.16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>579.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>806</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>6125.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>807.93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>324.09</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="n">
+        <x:v>17.19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>1276</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>8417.05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="n">
+        <x:v>411.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="n">
+        <x:v>411.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>54430</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="n">
+        <x:v>106168.05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="n">
+        <x:v>411.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>50449</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="n">
+        <x:v>85177.98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>3523</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>20578.67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>54430</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>106168.05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>45563</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>88093.11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>50064</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="n">
+        <x:v>116494.97</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/localfile/XLout.xlsx
+++ b/localfile/XLout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <x:si>
     <x:t>class</x:t>
   </x:si>
@@ -102,9 +102,6 @@
   </x:si>
   <x:si>
     <x:t>Resident</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Home 2H</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -483,10 +480,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>5783</x:v>
+        <x:v>6394</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>7228.75</x:v>
+        <x:v>7992.5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -497,10 +494,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>16.5</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -511,10 +508,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>96.25</x:v>
+        <x:v>75.25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -525,10 +522,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>670</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>1340</x:v>
+        <x:v>1424</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -539,10 +536,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>328.5</x:v>
+        <x:v>337.5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -553,10 +550,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>162.25</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -567,10 +564,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>282</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>1198.5</x:v>
+        <x:v>1245.25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -581,10 +578,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>103.5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -595,10 +592,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -609,10 +606,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>7030</x:v>
+        <x:v>7712</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>10483.75</x:v>
+        <x:v>11465</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -623,10 +620,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>1585</x:v>
+        <x:v>1676</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>871.75</x:v>
+        <x:v>921.8</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -637,10 +634,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>44.94</x:v>
+        <x:v>55.64</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -651,10 +648,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>1.26</x:v>
+        <x:v>6.3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -665,10 +662,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>29310</x:v>
+        <x:v>34053</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>34984.98</x:v>
+        <x:v>40647.03</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -679,10 +676,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>27.38</x:v>
+        <x:v>20.09</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -693,10 +690,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>47.29</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -707,10 +704,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>1890</x:v>
+        <x:v>2022</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>3620.6</x:v>
+        <x:v>3871.3</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -721,10 +718,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>625</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>1350.26</x:v>
+        <x:v>1575.3</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -735,10 +732,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>319</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>844.91</x:v>
+        <x:v>937.57</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -749,10 +746,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>1022</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>4251.31</x:v>
+        <x:v>4948.93</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -763,10 +760,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>365</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>1091.35</x:v>
+        <x:v>1270.75</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -777,10 +774,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>147.94</x:v>
+        <x:v>261.42</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -791,10 +788,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>173.42</x:v>
+        <x:v>313.95</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
@@ -805,10 +802,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>156.75</x:v>
+        <x:v>133.5</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -819,10 +816,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>131.56</x:v>
+        <x:v>194.35</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -833,7 +830,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>191</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
         <x:v>0</x:v>
@@ -847,10 +844,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>35567</x:v>
+        <x:v>41050</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>47745.7</x:v>
+        <x:v>55216.93</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -861,10 +858,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>115.43</x:v>
+        <x:v>138.04</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -872,13 +869,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>1.66</x:v>
+        <x:v>1.43</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
@@ -886,13 +883,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>297</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>564.3</x:v>
+        <x:v>3.32</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -900,13 +897,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>430.14</x:v>
+        <x:v>712.5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
@@ -914,13 +911,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>184</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>480.24</x:v>
+        <x:v>413.02</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
@@ -928,13 +925,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>692</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>2795.68</x:v>
+        <x:v>801.27</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -942,13 +939,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>403</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>1204.97</x:v>
+        <x:v>2900.72</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -956,13 +953,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>171.2</x:v>
+        <x:v>1489.02</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
@@ -970,13 +967,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>11.96</x:v>
+        <x:v>226.84</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
@@ -984,13 +981,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>137.75</x:v>
+        <x:v>26.91</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
@@ -998,13 +995,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>50.83</x:v>
+        <x:v>118.75</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
@@ -1012,27 +1009,27 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>1965</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>5964.16</x:v>
+        <x:v>26.91</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>44562</x:v>
+        <x:v>2306</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>64193.61</x:v>
+        <x:v>6858.73</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
@@ -1040,13 +1037,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>1585</x:v>
+        <x:v>51068</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>871.75</x:v>
+        <x:v>73540.66</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
@@ -1054,13 +1051,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>35348</x:v>
+        <x:v>1676</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>42564.44</x:v>
+        <x:v>921.8</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
@@ -1068,13 +1065,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>7438</x:v>
+        <x:v>40738</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>20757.42</x:v>
+        <x:v>49025.6</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
@@ -1082,13 +1079,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>191</x:v>
+        <x:v>8420</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>23593.26</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
@@ -1096,13 +1093,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>44562</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>64193.61</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
@@ -1113,10 +1110,24 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>52194</x:v>
+        <x:v>51068</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>72572.27</x:v>
+        <x:v>73540.66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="n">
+        <x:v>57834</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="n">
+        <x:v>80797.93</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1161,10 +1172,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>5256</x:v>
+        <x:v>5476</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>5256</x:v>
+        <x:v>5476</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -1175,10 +1186,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -1189,10 +1200,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>3.5</x:v>
+        <x:v>10.5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -1203,10 +1214,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>226</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -1217,10 +1228,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>74.25</x:v>
+        <x:v>65.25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -1231,10 +1242,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -1245,10 +1256,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>442</x:v>
+        <x:v>463.25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -1259,10 +1270,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>58.5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -1287,10 +1298,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>5576</x:v>
+        <x:v>5846</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>6147.75</x:v>
+        <x:v>6484.5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -1301,10 +1312,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>6641</x:v>
+        <x:v>7163</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>1859.73</x:v>
+        <x:v>2006.39</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -1315,10 +1326,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>3331</x:v>
+        <x:v>3419</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>299.79</x:v>
+        <x:v>307.96</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -1343,10 +1354,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>1.5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -1357,10 +1368,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>6631</x:v>
+        <x:v>7024</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>6322.95</x:v>
+        <x:v>6694.8</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -1371,10 +1382,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>4.29</x:v>
+        <x:v>10.01</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -1385,10 +1396,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>4.98</x:v>
+        <x:v>1.66</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -1396,13 +1407,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>0.95</x:v>
+        <x:v>285.8</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -1410,13 +1421,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>179</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>341.7</x:v>
+        <x:v>199.9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -1424,13 +1435,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>275.02</x:v>
+        <x:v>71.31</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -1438,13 +1449,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>1607.42</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -1452,13 +1463,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>1453.74</x:v>
+        <x:v>170.43</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -1466,13 +1477,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>155.48</x:v>
+        <x:v>195.68</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
@@ -1480,13 +1491,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>160.12</x:v>
+        <x:v>74.75</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -1494,13 +1505,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>92.69</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -1508,13 +1519,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>33.25</x:v>
+        <x:v>23.92</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -1522,13 +1533,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>11.96</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -1536,27 +1547,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>18471</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11673.61</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>17486</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>11088.73</x:v>
+        <x:v>223.25</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
@@ -1564,13 +1575,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>218.5</x:v>
+        <x:v>2.86</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -1581,10 +1592,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>3.32</x:v>
+        <x:v>6.64</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
@@ -1595,10 +1606,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>319.2</x:v>
+        <x:v>277.4</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
@@ -1609,10 +1620,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>182</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>389.48</x:v>
+        <x:v>344.54</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -1623,10 +1634,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>146.16</x:v>
+        <x:v>91.35</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -1637,10 +1648,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>1672.56</x:v>
+        <x:v>1668.52</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
@@ -1651,10 +1662,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>816.27</x:v>
+        <x:v>822.25</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
@@ -1665,10 +1676,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>154.08</x:v>
+        <x:v>235.4</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
@@ -1679,10 +1690,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>149.5</x:v>
+        <x:v>254.15</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
@@ -1693,10 +1704,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>23.75</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
@@ -1721,10 +1732,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>1432</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>3945.94</x:v>
+        <x:v>3988.98</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
@@ -1735,10 +1746,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>24494</x:v>
+        <x:v>25746</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>21182.42</x:v>
+        <x:v>22147.09</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
@@ -1749,10 +1760,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>6641</x:v>
+        <x:v>7163</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>1859.73</x:v>
+        <x:v>2006.39</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
@@ -1763,10 +1774,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>3331</x:v>
+        <x:v>3419</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>299.79</x:v>
+        <x:v>307.96</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
@@ -1777,10 +1788,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>12175</x:v>
+        <x:v>12822</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>11880.62</x:v>
+        <x:v>12520.3</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
@@ -1791,10 +1802,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>2292</x:v>
+        <x:v>2289</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>7142.28</x:v>
+        <x:v>7312.44</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
@@ -1805,7 +1816,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
@@ -1819,10 +1830,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>24494</x:v>
+        <x:v>25746</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>21182.42</x:v>
+        <x:v>22147.09</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/localfile/XLout.xlsx
+++ b/localfile/XLout.xlsx
@@ -8,6 +8,9 @@
   <x:sheets>
     <x:sheet name="06" sheetId="2" r:id="rId2"/>
     <x:sheet name="89" sheetId="5" r:id="rId5"/>
+    <x:sheet name="08" sheetId="7" r:id="rId7"/>
+    <x:sheet name="09" sheetId="8" r:id="rId8"/>
+    <x:sheet name="14" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>class</x:t>
   </x:si>
@@ -71,9 +74,6 @@
     <x:t>Green Discount</x:t>
   </x:si>
   <x:si>
-    <x:t>Motor Cycle 2L</x:t>
-  </x:si>
-  <x:si>
     <x:t>5S</x:t>
   </x:si>
   <x:si>
@@ -102,6 +102,18 @@
   </x:si>
   <x:si>
     <x:t>Resident</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Cycle 2L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Non EZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Home 2H</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -480,10 +492,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>6394</x:v>
+        <x:v>5467</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>7992.5</x:v>
+        <x:v>6833.75</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -494,10 +506,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>10.5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -508,10 +520,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>75.25</x:v>
+        <x:v>89.25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -522,10 +534,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>712</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>1424</x:v>
+        <x:v>1442</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -536,10 +548,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>337.5</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -550,10 +562,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>165</x:v>
+        <x:v>134.75</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -564,10 +576,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>293</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>1245.25</x:v>
+        <x:v>1423.75</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -578,10 +590,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>103.5</x:v>
+        <x:v>85.5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -592,10 +604,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -606,10 +618,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>7712</x:v>
+        <x:v>6827</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>11465</x:v>
+        <x:v>10458.5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -620,10 +632,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>1676</x:v>
+        <x:v>1679</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>921.8</x:v>
+        <x:v>923.45</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -634,10 +646,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>55.64</x:v>
+        <x:v>53.5</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -645,13 +657,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>29357</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>6.3</x:v>
+        <x:v>35047.57</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -659,13 +671,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>34053</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>40647.03</x:v>
+        <x:v>22.88</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -673,13 +685,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>20.09</x:v>
+        <x:v>30.33</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -687,13 +699,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>2117</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>4056</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -701,13 +713,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>2022</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>3871.3</x:v>
+        <x:v>1418.9</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -715,13 +727,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>728</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>1575.3</x:v>
+        <x:v>792.8</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -729,13 +741,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>353</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>937.57</x:v>
+        <x:v>4537.63</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -743,13 +755,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>1190</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>4948.93</x:v>
+        <x:v>1207.96</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -757,13 +769,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>425</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>1270.75</x:v>
+        <x:v>217.96</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -771,13 +783,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>261.42</x:v>
+        <x:v>167.44</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -785,13 +797,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>313.95</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
@@ -799,13 +811,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>133.5</x:v>
+        <x:v>206.31</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -816,10 +828,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>194.35</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -827,195 +839,195 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>36120</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>48806.73</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>41050</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>55216.93</x:v>
+        <x:v>134.47</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>138.04</x:v>
+        <x:v>2.86</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>1.43</x:v>
+        <x:v>6.64</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>3.32</x:v>
+        <x:v>666.9</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>375</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>712.5</x:v>
+        <x:v>408.74</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>193</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>413.02</x:v>
+        <x:v>665.55</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>307</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>801.27</x:v>
+        <x:v>2803.76</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>718</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>2900.72</x:v>
+        <x:v>1315.6</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>498</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>1489.02</x:v>
+        <x:v>201.16</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>226.84</x:v>
+        <x:v>14.95</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>26.91</x:v>
+        <x:v>109.25</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>118.75</x:v>
+        <x:v>32.89</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2136</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>26.91</x:v>
+        <x:v>6362.77</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
@@ -1023,105 +1035,105 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>2306</x:v>
+        <x:v>45083</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>6858.73</x:v>
+        <x:v>65628</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="A42" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>51068</x:v>
+        <x:v>1679</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>73540.66</x:v>
+        <x:v>923.45</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>1676</x:v>
+        <x:v>35085</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>921.8</x:v>
+        <x:v>42231.75</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
       <x:c r="A44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>40738</x:v>
+        <x:v>8090</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>49025.6</x:v>
+        <x:v>22472.8</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
       <x:c r="A45" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>8420</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>23593.26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
       <x:c r="A46" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>45083</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>65628</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
       <x:c r="A47" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>51068</x:v>
+        <x:v>51370</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>73540.66</x:v>
+        <x:v>72981.09</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
         <x:v>57834</x:v>
@@ -1323,7 +1335,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
         <x:v>3419</x:v>
@@ -1351,7 +1363,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
         <x:v>4</x:v>
@@ -1463,7 +1475,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
         <x:v>57</x:v>
@@ -1491,7 +1503,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
         <x:v>25</x:v>
@@ -1519,7 +1531,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>8</x:v>
@@ -1533,7 +1545,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
         <x:v>53</x:v>
@@ -1558,7 +1570,7 @@
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>5</x:v>
@@ -1572,7 +1584,7 @@
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>6</x:v>
@@ -1586,7 +1598,7 @@
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>7</x:v>
@@ -1600,7 +1612,7 @@
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>8</x:v>
@@ -1614,7 +1626,7 @@
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1628,7 +1640,7 @@
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>10</x:v>
@@ -1642,7 +1654,7 @@
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>11</x:v>
@@ -1656,10 +1668,10 @@
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
         <x:v>275</x:v>
@@ -1670,7 +1682,7 @@
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>12</x:v>
@@ -1684,10 +1696,10 @@
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
         <x:v>85</x:v>
@@ -1698,7 +1710,7 @@
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>13</x:v>
@@ -1712,16 +1724,722 @@
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>38.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>1429</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>3988.98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>25746</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>22147.09</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>7163</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="n">
+        <x:v>2006.39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>3419</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="n">
+        <x:v>307.96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="n">
+        <x:v>12822</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="n">
+        <x:v>12520.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="n">
+        <x:v>2289</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="n">
+        <x:v>7312.44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="A49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="n">
+        <x:v>25746</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="n">
+        <x:v>22147.09</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D42"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>4970</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>6212.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>236.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>1045.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>201.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>5430</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>8026.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>4348</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>2391.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>36.38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>1.26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>27571</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>33071.93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>17.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>30.51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>1063</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>2044.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>1824.32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>709.95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>769</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>3197.48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>1389.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>5.46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>35443</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>44965.79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>115.43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>1.66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>738.63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>347.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>2395.72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="n">
+        <x:v>1099</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="n">
+        <x:v>94.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="n">
+        <x:v>21.84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>1655</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="n">
+        <x:v>5346.48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>42528</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="n">
+        <x:v>58339.02</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>4348</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="n">
+        <x:v>2391.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>32705</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>39486.97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>5254</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>16460.65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>38.87</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
@@ -1729,94 +2447,716 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>1429</x:v>
+        <x:v>42528</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>3988.98</x:v>
+        <x:v>58339.02</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>25746</x:v>
+        <x:v>43913</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>22147.09</x:v>
+        <x:v>59532.93</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D48"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>7094</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>35470</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>852.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>4189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>1390.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>1237.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>23874.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>1066</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>1083.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>8350</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>69347.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>12711</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>38133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>1023</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>511.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>350.96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>33318</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>159835.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>513.17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>1658.94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>1513</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>15697.81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>6374.27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>4406.14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>2881</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>81956.27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>8103.17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>1829.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>1854.71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>1145.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>1838.29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>53385</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>324213.43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>541.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>11.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="n">
+        <x:v>41.26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>1433.06</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="n">
+        <x:v>1209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="n">
+        <x:v>2583.95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>1353</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="n">
+        <x:v>24846.38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="n">
+        <x:v>8148.28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="n">
+        <x:v>1455.47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>229.32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>652.62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>65.52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>2442</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>41217.86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>64177</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>434778.79</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
       <x:c r="A44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>7163</x:v>
+        <x:v>12711</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>2006.39</x:v>
+        <x:v>38133</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
       <x:c r="A45" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>3419</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>307.96</x:v>
+        <x:v>511.5</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
       <x:c r="A46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>12822</x:v>
+        <x:v>40919</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>12520.3</x:v>
+        <x:v>199464.33</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
       <x:c r="A47" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>2289</x:v>
+        <x:v>9300</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>7312.44</x:v>
+        <x:v>196669.96</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
@@ -1824,16 +3164,610 @@
     </x:row>
     <x:row r="49" spans="1:4">
       <x:c r="A49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="n">
+        <x:v>64177</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="n">
+        <x:v>434778.79</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D39"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>238.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>2199.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>1155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>7816.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>368.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>429</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>1388</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>13275.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>13.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>75.37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>822</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>3075.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>2778.76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>1611.52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>1713</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>20305.58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>1370.76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>516.35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>160.31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>189.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>184.67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>3734</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>30281.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>1.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>13.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>643.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>927.96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>1262.39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>1246</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>9405.68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>2141.29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="n">
+        <x:v>654.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="n">
+        <x:v>44.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="n">
+        <x:v>169.12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="n">
+        <x:v>75.64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>2425</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="n">
+        <x:v>15340.71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>7547</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="n">
+        <x:v>58898.08</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="n">
-        <x:v>25746</x:v>
-      </x:c>
-      <x:c r="D49" s="0" t="n">
-        <x:v>22147.09</x:v>
+      <x:c r="C38" s="0" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="n">
+        <x:v>420.37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>7400</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>58477.71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>7547</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>58898.08</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
